--- a/Base_Framework_ELF/src/test/resources/TestData/testData.xlsx
+++ b/Base_Framework_ELF/src/test/resources/TestData/testData.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>yogita</t>
+  </si>
+  <si>
+    <t>medbch</t>
   </si>
 </sst>
 </file>
@@ -339,15 +342,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Base_Framework_ELF/src/test/resources/TestData/testData.xlsx
+++ b/Base_Framework_ELF/src/test/resources/TestData/testData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="register" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,12 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>yogita</t>
   </si>
   <si>
     <t>medbch</t>
+  </si>
+  <si>
+    <t>Zlatan</t>
+  </si>
+  <si>
+    <t>Ibrahmovic</t>
+  </si>
+  <si>
+    <t>zlatan@gmail.com</t>
+  </si>
+  <si>
+    <t>Password@123</t>
   </si>
 </sst>
 </file>
@@ -60,8 +73,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,7 +360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -361,4 +377,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Base_Framework_ELF/src/test/resources/TestData/testData.xlsx
+++ b/Base_Framework_ELF/src/test/resources/TestData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t>yogita</t>
-  </si>
-  <si>
-    <t>medbch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Zlatan</t>
   </si>
@@ -38,6 +32,9 @@
   </si>
   <si>
     <t>Password@123</t>
+  </si>
+  <si>
+    <t>yogbelavanaki@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -360,18 +357,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="25.85546875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -383,7 +383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -397,19 +397,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
